--- a/data/webtable.xlsx
+++ b/data/webtable.xlsx
@@ -402,21 +402,26 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Visited</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Country</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Capital(s)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Currency</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Primary Language(s)</v>
+    <row r="1" xml:space="preserve">
+      <c r="A1" t="str" xml:space="preserve">
+        <v xml:space="preserve">Visited
+</v>
+      </c>
+      <c r="B1" t="str" xml:space="preserve">
+        <v xml:space="preserve">Country
+</v>
+      </c>
+      <c r="C1" t="str" xml:space="preserve">
+        <v xml:space="preserve">Capital(s)
+</v>
+      </c>
+      <c r="D1" t="str" xml:space="preserve">
+        <v xml:space="preserve">Currency
+</v>
+      </c>
+      <c r="E1" t="str" xml:space="preserve">
+        <v xml:space="preserve">Primary Language(s)
+</v>
       </c>
     </row>
     <row r="2">
